--- a/data/trans_orig/P21D6_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>208450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>193018</v>
+        <v>194899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>218466</v>
+        <v>219703</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8528720060771036</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7897286623607741</v>
+        <v>0.7974272100980464</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.893851460586933</v>
+        <v>0.8989134952432235</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>263</v>
@@ -762,19 +762,19 @@
         <v>201455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190518</v>
+        <v>191610</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>209344</v>
+        <v>209666</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8578961286528992</v>
+        <v>0.8578961286528991</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8113234738787424</v>
+        <v>0.8159745879437219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8914914001695041</v>
+        <v>0.8928624972891229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>473</v>
@@ -783,19 +783,19 @@
         <v>409905</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>393244</v>
+        <v>394411</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>424131</v>
+        <v>423857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8553338187996642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8205668127660449</v>
+        <v>0.8230039797591893</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8850192215744916</v>
+        <v>0.8844471742464752</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>29232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20000</v>
+        <v>18990</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44981</v>
+        <v>42193</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1196010248787275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08182955388750535</v>
+        <v>0.07769713234935613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1840396158008873</v>
+        <v>0.1726338416457804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -833,19 +833,19 @@
         <v>30357</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23051</v>
+        <v>21948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40552</v>
+        <v>39771</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1292739040303962</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09816091423719638</v>
+        <v>0.09346567396358187</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1726931637724829</v>
+        <v>0.169366119307554</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -854,19 +854,19 @@
         <v>59588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>47357</v>
+        <v>46122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76213</v>
+        <v>75514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1243407215322468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09881874970659607</v>
+        <v>0.09624199785371608</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1590300162370988</v>
+        <v>0.1575732018396249</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>6728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2506</v>
+        <v>2676</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14351</v>
+        <v>14496</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0275269690441689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01025457435545804</v>
+        <v>0.01094746750002523</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05871520034548469</v>
+        <v>0.059311496290296</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>2503</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6138</v>
+        <v>6477</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01065871905987051</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003001848551864346</v>
+        <v>0.002974145134772272</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02614031051610489</v>
+        <v>0.027580785047867</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -925,19 +925,19 @@
         <v>9231</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4600</v>
+        <v>4415</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17273</v>
+        <v>16449</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01926155119414708</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009598234776032505</v>
+        <v>0.009211910342315463</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03604252151389665</v>
+        <v>0.03432391996941016</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2656</v>
+        <v>2588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002171248256834205</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01131012178400628</v>
+        <v>0.01101956981811472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3078</v>
+        <v>2641</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001063908473941949</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006422743861513668</v>
+        <v>0.005511651270344785</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>167330</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>154878</v>
+        <v>155268</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>176503</v>
+        <v>176339</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8497043690878477</v>
+        <v>0.8497043690878479</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7864760608007322</v>
+        <v>0.7884569970212082</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8962872616958747</v>
+        <v>0.8954556801887744</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>224</v>
@@ -1113,19 +1113,19 @@
         <v>165252</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>154551</v>
+        <v>154812</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>174251</v>
+        <v>174012</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.8404572210133225</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7860300011586432</v>
+        <v>0.7873607912235752</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8862244467868829</v>
+        <v>0.885005808177539</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>389</v>
@@ -1134,19 +1134,19 @@
         <v>332582</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>316975</v>
+        <v>317498</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>345080</v>
+        <v>345541</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.8450843803354683</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8054276329318211</v>
+        <v>0.8067548885361864</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8768402655213694</v>
+        <v>0.878013498696303</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>22544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14229</v>
+        <v>14221</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34640</v>
+        <v>33949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.114477367647701</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07225420044684186</v>
+        <v>0.0722161726764505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1759012537225245</v>
+        <v>0.1723961920127076</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -1184,19 +1184,19 @@
         <v>24965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17860</v>
+        <v>17735</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33087</v>
+        <v>33974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1269715016231127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09083255193096655</v>
+        <v>0.0901984213817978</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1682784197145442</v>
+        <v>0.1727874857060066</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1205,19 +1205,19 @@
         <v>47509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36339</v>
+        <v>35766</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61088</v>
+        <v>62004</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1207195904359512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09233563065813857</v>
+        <v>0.0908809188058962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1552231296942145</v>
+        <v>0.1575499121565363</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>5542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2193</v>
+        <v>2347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11688</v>
+        <v>11854</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02814285633070472</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0111358468221415</v>
+        <v>0.01191614364966871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05935114994254071</v>
+        <v>0.06019632475264365</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1255,19 +1255,19 @@
         <v>5879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2188</v>
+        <v>2161</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15813</v>
+        <v>14293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02990104625773807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01112697734845108</v>
+        <v>0.01098893320839647</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08042487338241779</v>
+        <v>0.07269385460073843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1276,19 +1276,19 @@
         <v>11421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5856</v>
+        <v>6049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20400</v>
+        <v>20416</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02902126961250547</v>
+        <v>0.02902126961250548</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01487911557212693</v>
+        <v>0.01537157372295173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05183592330797781</v>
+        <v>0.05187676869561794</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5242</v>
+        <v>5089</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007675406933746429</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0266164865832843</v>
+        <v>0.02584286623225791</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2713</v>
+        <v>2902</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002670231105826758</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01379827705490809</v>
+        <v>0.01475719061924567</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1347,19 +1347,19 @@
         <v>2037</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5511</v>
+        <v>5843</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005174759616075098</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001325521345050243</v>
+        <v>0.001336205040749952</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01400405498723497</v>
+        <v>0.01484778373615778</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>159518</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148070</v>
+        <v>148693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>168872</v>
+        <v>169259</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.844741252348337</v>
+        <v>0.8447412523483371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7841132079422819</v>
+        <v>0.7874164867686967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8942750975699375</v>
+        <v>0.8963248045296301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -1472,19 +1472,19 @@
         <v>78706</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74086</v>
+        <v>73340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81835</v>
+        <v>81924</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9086209729243201</v>
+        <v>0.9086209729243199</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.855288297204316</v>
+        <v>0.8466773527432968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9447462129322397</v>
+        <v>0.9457790127775157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>277</v>
@@ -1493,19 +1493,19 @@
         <v>238224</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>226297</v>
+        <v>224482</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>248633</v>
+        <v>248415</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8648289862372756</v>
+        <v>0.8648289862372757</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.821529668336027</v>
+        <v>0.8149401524471116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.902615943564724</v>
+        <v>0.9018253332109265</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>23331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15420</v>
+        <v>14690</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34790</v>
+        <v>33515</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1235489395952746</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0816571035563745</v>
+        <v>0.07779052481090595</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1842327627777759</v>
+        <v>0.1774786585787755</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -1543,19 +1543,19 @@
         <v>6875</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3778</v>
+        <v>3762</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11419</v>
+        <v>12130</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07936560974280682</v>
+        <v>0.07936560974280681</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0436125433306799</v>
+        <v>0.04342497524006919</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1318286812855296</v>
+        <v>0.1400361856709946</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>34</v>
@@ -1564,19 +1564,19 @@
         <v>30205</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>21286</v>
+        <v>21147</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>40808</v>
+        <v>42071</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1096549687951383</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07727429747411231</v>
+        <v>0.07677149114702467</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1481445897427156</v>
+        <v>0.1527314045248124</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>4993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1297</v>
+        <v>1343</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11667</v>
+        <v>12123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02644212883016694</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006870832713000548</v>
+        <v>0.007109626186619514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06178219708021416</v>
+        <v>0.06419963445990491</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3853</v>
+        <v>3836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01201341733287324</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04448377289431078</v>
+        <v>0.04428270984763703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1635,19 +1635,19 @@
         <v>6034</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2257</v>
+        <v>2230</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13475</v>
+        <v>14160</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02190484979537296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00819366231401685</v>
+        <v>0.008096507894637556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04891737716267867</v>
+        <v>0.05140602011792844</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5373</v>
+        <v>4887</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005267679226221417</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0284512927465442</v>
+        <v>0.0258789050324463</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5163</v>
+        <v>4843</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003611195172213047</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01874489192778344</v>
+        <v>0.01758082788769631</v>
       </c>
     </row>
     <row r="18">
@@ -1802,19 +1802,19 @@
         <v>458002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>438912</v>
+        <v>436917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>471175</v>
+        <v>471635</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8965800670585679</v>
+        <v>0.896580067058568</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8592102710416352</v>
+        <v>0.855305021077954</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9223685283061379</v>
+        <v>0.9232684875167192</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>460</v>
@@ -1823,19 +1823,19 @@
         <v>331686</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>319449</v>
+        <v>319017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>342876</v>
+        <v>344086</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8578106809849845</v>
+        <v>0.8578106809849846</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8261613772693777</v>
+        <v>0.82504477211351</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8867507499566712</v>
+        <v>0.8898803755720933</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>907</v>
@@ -1844,19 +1844,19 @@
         <v>789688</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>766030</v>
+        <v>766492</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>808453</v>
+        <v>806551</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8798771752060776</v>
+        <v>0.8798771752060773</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8535177294340618</v>
+        <v>0.8540323415976722</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9007854900648569</v>
+        <v>0.8986658229682708</v>
       </c>
     </row>
     <row r="20">
@@ -1873,19 +1873,19 @@
         <v>37783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25756</v>
+        <v>27081</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56110</v>
+        <v>58642</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07396443344814702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05042051938117618</v>
+        <v>0.05301343829789604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1098405841535874</v>
+        <v>0.1147967538958692</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -1894,19 +1894,19 @@
         <v>37763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28727</v>
+        <v>28082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49790</v>
+        <v>49695</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09766277976519168</v>
+        <v>0.09766277976519172</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07429426868419267</v>
+        <v>0.07262701807715057</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1287682360625212</v>
+        <v>0.1285217056472094</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -1915,19 +1915,19 @@
         <v>75546</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61258</v>
+        <v>60795</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>95936</v>
+        <v>95970</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08417431695946138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06825365502895922</v>
+        <v>0.06773795639322533</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.106893180103692</v>
+        <v>0.1069304547673802</v>
       </c>
     </row>
     <row r="21">
@@ -1944,19 +1944,19 @@
         <v>10190</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4617</v>
+        <v>5196</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19080</v>
+        <v>19376</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01994716835742952</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009037634955963197</v>
+        <v>0.01017178527160604</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03735023626131981</v>
+        <v>0.03793005779251905</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -1965,19 +1965,19 @@
         <v>10699</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5952</v>
+        <v>6095</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18184</v>
+        <v>19114</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02767019300137171</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01539398312243821</v>
+        <v>0.01576379188815867</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04702849654415881</v>
+        <v>0.04943351224727598</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -1986,19 +1986,19 @@
         <v>20889</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13143</v>
+        <v>12926</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31950</v>
+        <v>32339</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.02327445461254461</v>
+        <v>0.0232744546125446</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01464424551847325</v>
+        <v>0.01440218359835651</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03559874357972499</v>
+        <v>0.03603213072296099</v>
       </c>
     </row>
     <row r="22">
@@ -2015,19 +2015,19 @@
         <v>4857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1848</v>
+        <v>1155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13777</v>
+        <v>12644</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009508331135855638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003617032345196245</v>
+        <v>0.002260442891661877</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02696949798134178</v>
+        <v>0.02475160833137958</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2036,19 +2036,19 @@
         <v>6518</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3334</v>
+        <v>3379</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11708</v>
+        <v>12022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01685634624845204</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008621770434472154</v>
+        <v>0.00873828224406268</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03027893182110536</v>
+        <v>0.03109237467129311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -2057,19 +2057,19 @@
         <v>11375</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6244</v>
+        <v>5682</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19339</v>
+        <v>19214</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01267405322191648</v>
+        <v>0.01267405322191647</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006957121839766395</v>
+        <v>0.006331019482391593</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0215478615885314</v>
+        <v>0.02140884904018412</v>
       </c>
     </row>
     <row r="23">
@@ -2161,19 +2161,19 @@
         <v>248404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>237783</v>
+        <v>237362</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>255768</v>
+        <v>255565</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9373611186774127</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.897279655914174</v>
+        <v>0.8956937188852911</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9651495805313127</v>
+        <v>0.9643801891760813</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>507</v>
@@ -2182,19 +2182,19 @@
         <v>341189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>328722</v>
+        <v>330415</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>350353</v>
+        <v>350891</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8796231501145922</v>
+        <v>0.8796231501145921</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.847480788990438</v>
+        <v>0.851846864975407</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9032486256092117</v>
+        <v>0.9046353138346556</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>739</v>
@@ -2203,19 +2203,19 @@
         <v>589594</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>575694</v>
+        <v>574537</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>602880</v>
+        <v>602790</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9030588262830819</v>
+        <v>0.9030588262830815</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.881769607743852</v>
+        <v>0.8799970929121036</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.923409121405524</v>
+        <v>0.9232712461745176</v>
       </c>
     </row>
     <row r="25">
@@ -2232,19 +2232,19 @@
         <v>15332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7928</v>
+        <v>8712</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25847</v>
+        <v>26827</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0578542963867688</v>
+        <v>0.05785429638676881</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02991512489249328</v>
+        <v>0.0328754462612797</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09753302555564082</v>
+        <v>0.1012326951083754</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2253,19 +2253,19 @@
         <v>30354</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22799</v>
+        <v>22214</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40344</v>
+        <v>40339</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07825560771835756</v>
+        <v>0.07825560771835754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05877921933329633</v>
+        <v>0.05726886505946401</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1040103396111077</v>
+        <v>0.1039993003013505</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>61</v>
@@ -2274,19 +2274,19 @@
         <v>45685</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34070</v>
+        <v>35169</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>58530</v>
+        <v>59401</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06997477384628525</v>
+        <v>0.06997477384628524</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05218396552391783</v>
+        <v>0.05386634519430777</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08964843553779427</v>
+        <v>0.09098283271395487</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>7060</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3481</v>
+        <v>3353</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12684</v>
+        <v>12414</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01820035341188809</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008975320147311474</v>
+        <v>0.00864374759213832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03269977145069389</v>
+        <v>0.03200548947874723</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -2337,19 +2337,19 @@
         <v>7060</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3672</v>
+        <v>3528</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13085</v>
+        <v>13068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01081288205932416</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005623730220556451</v>
+        <v>0.005404356906255812</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02004181012481078</v>
+        <v>0.02001502246201314</v>
       </c>
     </row>
     <row r="27">
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6530</v>
+        <v>7669</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.004784584935818536</v>
+        <v>0.004784584935818537</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02464275245388364</v>
+        <v>0.02894004042535729</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>15</v>
@@ -2387,19 +2387,19 @@
         <v>9278</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5538</v>
+        <v>5483</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14869</v>
+        <v>15646</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02392088875516218</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01427742324935002</v>
+        <v>0.01413693075030083</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03833331656698188</v>
+        <v>0.04033777043176986</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>16</v>
@@ -2408,19 +2408,19 @@
         <v>10546</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6314</v>
+        <v>6455</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>16978</v>
+        <v>17475</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01615351781130888</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.009670699137506357</v>
+        <v>0.009886742579030567</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02600458562399851</v>
+        <v>0.02676553101824379</v>
       </c>
     </row>
     <row r="28">
@@ -2512,19 +2512,19 @@
         <v>104095</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87495</v>
+        <v>88751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112167</v>
+        <v>112137</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.886392122213994</v>
+        <v>0.8863921222139939</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7450356204314031</v>
+        <v>0.7557346220779834</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9551254214499958</v>
+        <v>0.9548690185523208</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>420</v>
@@ -2533,19 +2533,19 @@
         <v>310161</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>297168</v>
+        <v>297402</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>320487</v>
+        <v>320860</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8731433275799019</v>
+        <v>0.8731433275799017</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.836568377090959</v>
+        <v>0.8372268022708851</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9022146588399521</v>
+        <v>0.9032632123364608</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>470</v>
@@ -2554,19 +2554,19 @@
         <v>414256</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>395859</v>
+        <v>394805</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>428478</v>
+        <v>427614</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8764351245831147</v>
+        <v>0.8764351245831146</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.837513238878172</v>
+        <v>0.8352831682087839</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9065251078614512</v>
+        <v>0.9046968531346453</v>
       </c>
     </row>
     <row r="30">
@@ -2583,19 +2583,19 @@
         <v>9806</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2956</v>
+        <v>3243</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24220</v>
+        <v>24823</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08350026626611567</v>
+        <v>0.08350026626611566</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02517191477553523</v>
+        <v>0.02761273625903889</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2062416954787691</v>
+        <v>0.2113735187689336</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -2604,19 +2604,19 @@
         <v>29265</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20427</v>
+        <v>20042</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39990</v>
+        <v>41490</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08238542341450189</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05750356179457382</v>
+        <v>0.0564202218308607</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1125770295364852</v>
+        <v>0.1168008970314282</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>45</v>
@@ -2625,19 +2625,19 @@
         <v>39071</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27333</v>
+        <v>27231</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57016</v>
+        <v>58177</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08266241739466008</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0578279077093334</v>
+        <v>0.05761297890024269</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.120628829057757</v>
+        <v>0.1230838347960555</v>
       </c>
     </row>
     <row r="31">
@@ -2657,16 +2657,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17058</v>
+        <v>14986</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.03010761151989035</v>
+        <v>0.03010761151989034</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1452548401205558</v>
+        <v>0.1276086448329193</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -2675,19 +2675,19 @@
         <v>13373</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8240</v>
+        <v>8398</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19389</v>
+        <v>19781</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03764705129229465</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02319589995279746</v>
+        <v>0.02364119286510447</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05458282428005084</v>
+        <v>0.0556862008130404</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2696,19 +2696,19 @@
         <v>16909</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10884</v>
+        <v>10657</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30251</v>
+        <v>29951</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03577380123943014</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02302779147603984</v>
+        <v>0.02254616266456502</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06400128422247466</v>
+        <v>0.06336611466392479</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>2424</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5837</v>
+        <v>6234</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006824197713301603</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001715357038289248</v>
+        <v>0.001716595658512706</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01643168783643078</v>
+        <v>0.01755047029051796</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2759,19 +2759,19 @@
         <v>2424</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5965</v>
+        <v>5830</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005128656782795103</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001284021055353478</v>
+        <v>0.001282748379265618</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01262092698655596</v>
+        <v>0.01233347474461756</v>
       </c>
     </row>
     <row r="33">
@@ -2863,19 +2863,19 @@
         <v>1345801</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1310850</v>
+        <v>1313123</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1373197</v>
+        <v>1376124</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.8833914337330832</v>
+        <v>0.8833914337330833</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.860449612679631</v>
+        <v>0.8619417183934193</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9013741270370058</v>
+        <v>0.9032955750907362</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1989</v>
@@ -2884,19 +2884,19 @@
         <v>1428449</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1403099</v>
+        <v>1403228</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1450638</v>
+        <v>1451966</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8668627793995741</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8514794130184826</v>
+        <v>0.8515573647140074</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8803288248057317</v>
+        <v>0.8811343799202708</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3255</v>
@@ -2905,19 +2905,19 @@
         <v>2774249</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2733367</v>
+        <v>2732675</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2808671</v>
+        <v>2812782</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.8748029497318138</v>
+        <v>0.8748029497318142</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8619117756850185</v>
+        <v>0.861693704858549</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8856573096976037</v>
+        <v>0.8869536459850219</v>
       </c>
     </row>
     <row r="35">
@@ -2934,19 +2934,19 @@
         <v>138027</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>113581</v>
+        <v>112226</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>167568</v>
+        <v>169828</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09060179890891437</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07455549094978858</v>
+        <v>0.07366610075941786</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1099924887168098</v>
+        <v>0.1114758695079796</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>237</v>
@@ -2955,19 +2955,19 @@
         <v>159579</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>139266</v>
+        <v>138618</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>182174</v>
+        <v>181574</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.09684130049620343</v>
+        <v>0.0968413004962034</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08451467166530965</v>
+        <v>0.08412130219834128</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1105536802349725</v>
+        <v>0.1101894434651422</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>358</v>
@@ -2976,19 +2976,19 @@
         <v>297606</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>266661</v>
+        <v>264940</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>334335</v>
+        <v>332828</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.09384391762451272</v>
+        <v>0.09384391762451275</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08408626142678353</v>
+        <v>0.08354334393131124</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.105425847599354</v>
+        <v>0.1049505574292906</v>
       </c>
     </row>
     <row r="36">
@@ -3005,19 +3005,19 @@
         <v>30989</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20418</v>
+        <v>20177</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47435</v>
+        <v>48317</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.02034111583952545</v>
+        <v>0.02034111583952546</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01340249815231714</v>
+        <v>0.01324459106660377</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03113682999890301</v>
+        <v>0.03171554701058649</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>57</v>
@@ -3026,19 +3026,19 @@
         <v>40555</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>30749</v>
+        <v>30593</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>52984</v>
+        <v>53720</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02461076571299155</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01866013211240911</v>
+        <v>0.01856554106567125</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03215382008730856</v>
+        <v>0.03260004922948593</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>83</v>
@@ -3047,19 +3047,19 @@
         <v>71543</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>55273</v>
+        <v>56455</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>89973</v>
+        <v>91151</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02255967633993732</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01742933120728495</v>
+        <v>0.0178020562296348</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02837122674836527</v>
+        <v>0.02874276064715678</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>8631</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3994</v>
+        <v>4095</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17460</v>
+        <v>16858</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.005665651518477003</v>
+        <v>0.005665651518477004</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002621812557817344</v>
+        <v>0.002687915487913266</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01146067424801056</v>
+        <v>0.01106582087136935</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>31</v>
@@ -3097,19 +3097,19 @@
         <v>19255</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13416</v>
+        <v>13920</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>27007</v>
+        <v>27147</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.01168515439123087</v>
+        <v>0.01168515439123086</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.008141343889836509</v>
+        <v>0.008447658814493027</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01638958131370433</v>
+        <v>0.01647422561593704</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>39</v>
@@ -3118,19 +3118,19 @@
         <v>27887</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>19892</v>
+        <v>19479</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>39057</v>
+        <v>38676</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.00879345630373593</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.006272662491998593</v>
+        <v>0.006142267138714761</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0123158303406205</v>
+        <v>0.01219560660640826</v>
       </c>
     </row>
     <row r="38">
